--- a/GATEWAY/A1#111#SYSMEDSRLXX/SYSMED_srl/SYSMED-GEST/1.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SYSMEDSRLXX/SYSMED_srl/SYSMED-GEST/1.1/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/495216ab786dc29e/Sysmed/Doc/Documenti esterni/FSE/Specifiche invio dati strutturati/Casi test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Onedrive\Sysmed\Doc\Documenti esterni\FSE\Specifiche invio dati strutturati\Casi test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="6_{238474F1-2958-4EF7-8365-C2D92E63230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F00E9E2-E25F-4BC4-8EEF-16FA69B6BAF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E187BAB9-BB0A-4089-AB61-4ABF1E7361E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="0" windowWidth="27165" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13275" yWindow="0" windowWidth="15360" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$49</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="275">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -552,9 +551,6 @@
     <t>Versione:</t>
   </si>
   <si>
-    <t>444, 445</t>
-  </si>
-  <si>
     <r>
       <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali https://www.hl7.it/realm-italiano/ e coerentemente ai casi di test descritti.</t>
     </r>
@@ -726,9 +722,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT26</t>
   </si>
   <si>
@@ -760,9 +753,6 @@
   </si>
   <si>
     <t>32,40,48,152,154,155,156,157,159,160,161,162,163,164,165,166,167,168,169, 461, 468, 475</t>
-  </si>
-  <si>
-    <t>8.2.6.1</t>
   </si>
   <si>
     <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
@@ -789,33 +779,304 @@
     <t>INVIO MANUALE DEL DOCUMENTO AL SERVIZIO DI VALIDAZIONE DEL GATEWAY A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
   </si>
   <si>
+    <t>8.2.7</t>
+  </si>
+  <si>
+    <t>476,477,478</t>
+  </si>
+  <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 476*, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI). 
+*) Il test in questione è da intendersi obbligatorio per gli applicativi che si stanno accreditando per la prima volta per PSS; nel caso di applicativi già accreditati, sarà sufficiente sottomettere il caso di test 478 (Fast Track)</t>
+  </si>
+  <si>
     <t>Sysmed s.r.l.</t>
   </si>
   <si>
     <t>subject_application_id: SYSMED-GEST</t>
   </si>
   <si>
+    <t>subject_application_vendor: Sysmed_srl</t>
+  </si>
+  <si>
+    <t>subject_application_version: 1.1</t>
+  </si>
+  <si>
+    <t>2026-02-04T09:07:56Z</t>
+  </si>
+  <si>
+    <t>81d0a7c616e9ce4c9d762ae05ad39a87</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.c4b54e8b40f2ee658534aaef7ca9aae8fe23462abb2cbffa6ecd8e9cfe5020fe.a6e32bf387^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:07:02Z</t>
+  </si>
+  <si>
+    <t>f21b472b7c9b94ed5b750a7754ec8362</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.79c411b888^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:06:05Z</t>
+  </si>
+  <si>
+    <t>8d63011343f8ce052d3c3467c65e92e6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.23f286bee2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:06:43Z</t>
+  </si>
+  <si>
+    <t>bdfde92279435b1c4f782c7ab0144bd2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.a726a5f3b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:06:36Z</t>
+  </si>
+  <si>
+    <t>bd0b555457715bb51887d6c5525683d9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.fddb31354d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:05:52Z</t>
+  </si>
+  <si>
+    <t>402838ab01c70a82131749bd0c477710</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.602d85d774^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:06:29Z</t>
+  </si>
+  <si>
+    <t>12b79b0a3509815d09e8d4b39cc3f471</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.16d305d104^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:10:20Z</t>
+  </si>
+  <si>
+    <t>334e424c64924430d102169335ca8bdd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.8210ceb20c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:10:12Z</t>
+  </si>
+  <si>
+    <t>1521eac760c926bcba9d0b635d676930</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.8766e4187b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:10:03Z</t>
+  </si>
+  <si>
+    <t>ce89be11fa8bf58afc1324dffe153875</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.9b4c02ba71^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:09:54Z</t>
+  </si>
+  <si>
+    <t>962e790c5615d1163debecbc5276bc2f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.c212201924^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:09:47Z</t>
+  </si>
+  <si>
+    <t>77ec8ecff3191e242e60102ae6723148</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.ef44e9f994^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:09:40Z</t>
+  </si>
+  <si>
+    <t>3c38577248bc624ba4727e828e5563aa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.94042fae44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:09:33Z</t>
+  </si>
+  <si>
+    <t>bd79120a63ba1240cce2748f925dd74e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.259924825a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:09:25Z</t>
+  </si>
+  <si>
+    <t>6d703bb8fc55cc102a10ea19912d24cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.2cb90c71cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:09:18Z</t>
+  </si>
+  <si>
+    <t>ec66b494c764c636c3d7c97dc1bd00ae</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.277e3aef61^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:09:11Z</t>
+  </si>
+  <si>
+    <t>34ee3cbc13565673bfb13408a13e6c8a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.b0c7d2c595^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:09:04Z</t>
+  </si>
+  <si>
+    <t>ace290b7aa63b99e8a6f33163d83fe91</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.7899651104^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:05:31Z</t>
+  </si>
+  <si>
+    <t>1737205ad6fabd1e8e08f863710e46fa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.41dc3d900d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:08:57Z</t>
+  </si>
+  <si>
+    <t>56fbff7109d49b0014c2e5a3c0c48513</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.6ccab56a04^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:06:22Z</t>
+  </si>
+  <si>
+    <t>eab58bf098583c8a77352bb081bf6935</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.16ae65c881^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:08:47Z</t>
+  </si>
+  <si>
+    <t>d023961fae70bb0f21008df99b956ac9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.146cbc3037^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:08:40Z</t>
+  </si>
+  <si>
+    <t>e2357567a9a814771c7dc34cfb7e721f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.2fe041bf6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:06:02Z</t>
+  </si>
+  <si>
+    <t>633e6da7715cc2b5a615489baf1c0591</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.6961feea66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-03T21:08:11Z</t>
+  </si>
+  <si>
+    <t>d3b645376c5f30f85de636763913da3f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.c392658059^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore confiurazione servizio di validazione - informare assistenza</t>
+  </si>
+  <si>
+    <t>Correzione della configurazione</t>
+  </si>
+  <si>
+    <t>Errore collegamento al servizio di validazione</t>
+  </si>
+  <si>
+    <t>Ripetizione fino a successo o abbandono del processo di firma</t>
+  </si>
+  <si>
+    <t>Codice fiscale paziente non valido</t>
+  </si>
+  <si>
+    <t>Dopo che il dato è stato corretto, il biologo firmatario esegue nuovamente la procedura di validazione/firma</t>
+  </si>
+  <si>
+    <t>Comune di residenza non specificato</t>
+  </si>
+  <si>
+    <t>Nominativo paziente non completo</t>
+  </si>
+  <si>
+    <t>Sesso paziente non valido</t>
+  </si>
+  <si>
+    <t>Specialità esame non valida</t>
+  </si>
+  <si>
+    <t>Tipologia materiale non specificata</t>
+  </si>
+  <si>
+    <t>se non presente non è possibile refertare</t>
+  </si>
+  <si>
+    <t>Dopo che il dato è stato corretto, il medico esegue nuovamente la procedura di validazione/firma</t>
+  </si>
+  <si>
     <t>se non presente non esiste il documento</t>
   </si>
   <si>
-    <t>Codice fiscale paziente non valido</t>
-  </si>
-  <si>
-    <t>Nominativo paziente non completo</t>
-  </si>
-  <si>
-    <t>Sesso paziente non valido</t>
-  </si>
-  <si>
-    <t>se non presente non è possibile refertare</t>
-  </si>
-  <si>
     <t>Riferimento immagini non specificato</t>
   </si>
   <si>
     <t>Anamnesi incompleta (data inizio)</t>
   </si>
   <si>
+    <t>Il medico completa/corregge il dato e ripete la validazione/firma</t>
+  </si>
+  <si>
     <t>Anamnesi incompleta (riferimenti familiari)</t>
   </si>
   <si>
@@ -831,274 +1092,13 @@
     <t>Tipo accesso non valido</t>
   </si>
   <si>
+    <t>L'applicativo non gestisce laboratori trasfusionali</t>
+  </si>
+  <si>
     <t>Riservatezza documento non valida</t>
   </si>
   <si>
     <t>Priorità prestazione non valida</t>
-  </si>
-  <si>
-    <t>Dopo che il dato è stato corretto, il medico esegue nuovamente la procedura di validazione/firma</t>
-  </si>
-  <si>
-    <t>Il medico completa/corregge il dato e ripete la validazione/firma</t>
-  </si>
-  <si>
-    <t>Errore collegamento al servizio di validazione</t>
-  </si>
-  <si>
-    <t>Ripetizione fino a successo o abbandono del processo di firma</t>
-  </si>
-  <si>
-    <t>subject_application_version: 1.1</t>
-  </si>
-  <si>
-    <t>Comune di residenza non specificato</t>
-  </si>
-  <si>
-    <t>Errore confiurazione servizio di validazione - informare assistenza</t>
-  </si>
-  <si>
-    <t>Correzione della configurazione</t>
-  </si>
-  <si>
-    <t>Dopo che il dato è stato corretto, il biologo firmatario esegue nuovamente la procedura di validazione/firma</t>
-  </si>
-  <si>
-    <t>L'applicativo non gestisce laboratori trasfusionali</t>
-  </si>
-  <si>
-    <t>Specialità esame non valida</t>
-  </si>
-  <si>
-    <t>Tipologia materiale non specificata</t>
-  </si>
-  <si>
-    <t>2026-02-04T09:07:56Z</t>
-  </si>
-  <si>
-    <t>81d0a7c616e9ce4c9d762ae05ad39a87</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.c4b54e8b40f2ee658534aaef7ca9aae8fe23462abb2cbffa6ecd8e9cfe5020fe.a6e32bf387^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f21b472b7c9b94ed5b750a7754ec8362</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.79c411b888^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8d63011343f8ce052d3c3467c65e92e6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.23f286bee2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bdfde92279435b1c4f782c7ab0144bd2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.a726a5f3b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bd0b555457715bb51887d6c5525683d9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.fddb31354d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>402838ab01c70a82131749bd0c477710</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.602d85d774^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>12b79b0a3509815d09e8d4b39cc3f471</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.16d305d104^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1737205ad6fabd1e8e08f863710e46fa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.41dc3d900d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>eab58bf098583c8a77352bb081bf6935</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.16ae65c881^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>633e6da7715cc2b5a615489baf1c0591</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d1b77110e11d02109a97a48a73e2667b26de4a69cc32d4ed91b6062ae0ebca1f.6961feea66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>334e424c64924430d102169335ca8bdd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.8210ceb20c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>1521eac760c926bcba9d0b635d676930</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.8766e4187b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ce89be11fa8bf58afc1324dffe153875</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.9b4c02ba71^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>962e790c5615d1163debecbc5276bc2f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.c212201924^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>77ec8ecff3191e242e60102ae6723148</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.ef44e9f994^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>3c38577248bc624ba4727e828e5563aa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.94042fae44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>bd79120a63ba1240cce2748f925dd74e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.259924825a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6d703bb8fc55cc102a10ea19912d24cd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.2cb90c71cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ec66b494c764c636c3d7c97dc1bd00ae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.277e3aef61^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>34ee3cbc13565673bfb13408a13e6c8a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.b0c7d2c595^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ace290b7aa63b99e8a6f33163d83fe91</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.7899651104^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>56fbff7109d49b0014c2e5a3c0c48513</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.6ccab56a04^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d023961fae70bb0f21008df99b956ac9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.146cbc3037^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e2357567a9a814771c7dc34cfb7e721f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.2fe041bf6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d3b645376c5f30f85de636763913da3f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.23288f9d46ea7ee0c66cc77f50c35544409bf7bbbdb76ddf73056d79432c1144.c392658059^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:07:02Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:06:05Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:06:43Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:06:36Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:05:52Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:06:29Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:10:20Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:10:12Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:10:03Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:09:54Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:09:47Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:09:40Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:09:33Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:09:25Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:09:18Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:09:11Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:09:04Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:05:31Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:08:57Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:06:22Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:08:47Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:08:40Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:06:02Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T21:08:11Z</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: Sysmed_srl</t>
   </si>
 </sst>
 </file>
@@ -1664,6 +1664,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1687,9 +1690,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
@@ -1991,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -2016,24 +2016,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>155</v>
+    <row r="4" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3137,35 +3137,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W609"/>
+  <dimension ref="A1:W606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:D4"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="59.5703125" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" customWidth="1"/>
-    <col min="12" max="12" width="49" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" customWidth="1"/>
-    <col min="15" max="15" width="44.140625" customWidth="1"/>
-    <col min="16" max="17" width="36.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="40" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="11" max="18" width="36.42578125" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
     <col min="22" max="23" width="31.85546875" customWidth="1"/>
@@ -3194,14 +3185,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3222,14 +3213,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3250,12 +3241,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="45"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="46"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3277,12 +3268,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="45"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="46"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3302,9 +3293,9 @@
       <c r="V5" s="2"/>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3325,7 +3316,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:23" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3348,7 +3339,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="1:23" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3418,10 +3409,10 @@
         <v>28</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>29</v>
@@ -3450,22 +3441,22 @@
         <v>35</v>
       </c>
       <c r="D10" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>137</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>138</v>
       </c>
       <c r="F10" s="34">
         <v>46057</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="J10" s="35" t="s">
         <v>52</v>
@@ -3518,7 +3509,7 @@
         <v>52</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="P11" s="35" t="s">
         <v>52</v>
@@ -3530,7 +3521,7 @@
         <v>99</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
@@ -3571,7 +3562,7 @@
         <v>52</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="P12" s="35" t="s">
         <v>52</v>
@@ -3583,7 +3574,7 @@
         <v>99</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="T12" s="35"/>
       <c r="U12" s="36"/>
@@ -3624,7 +3615,7 @@
         <v>52</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="P13" s="35" t="s">
         <v>52</v>
@@ -3636,9 +3627,9 @@
         <v>99</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="T13" s="55"/>
+        <v>251</v>
+      </c>
+      <c r="T13" s="35"/>
       <c r="U13" s="36"/>
       <c r="V13" s="37"/>
       <c r="W13" s="35" t="s">
@@ -3677,7 +3668,7 @@
         <v>52</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="P14" s="35" t="s">
         <v>52</v>
@@ -3689,7 +3680,7 @@
         <v>99</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="T14" s="35"/>
       <c r="U14" s="36"/>
@@ -3712,7 +3703,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -3730,7 +3721,7 @@
         <v>52</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="P15" s="35" t="s">
         <v>99</v>
@@ -3742,10 +3733,12 @@
         <v>99</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="36"/>
+        <v>253</v>
+      </c>
+      <c r="T15" s="35"/>
+      <c r="U15" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="V15" s="37"/>
       <c r="W15" s="35" t="s">
         <v>44</v>
@@ -3765,7 +3758,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -3783,7 +3776,7 @@
         <v>52</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="P16" s="35" t="s">
         <v>99</v>
@@ -3795,10 +3788,12 @@
         <v>99</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="T16" s="35"/>
-      <c r="U16" s="36"/>
+      <c r="U16" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="V16" s="37"/>
       <c r="W16" s="35" t="s">
         <v>44</v>
@@ -3815,22 +3810,22 @@
         <v>35</v>
       </c>
       <c r="D17" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>153</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>154</v>
       </c>
       <c r="F17" s="34">
         <v>46056</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>52</v>
@@ -3844,7 +3839,7 @@
         <v>52</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="P17" s="35" t="s">
         <v>52</v>
@@ -3856,7 +3851,7 @@
         <v>52</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="T17" s="35"/>
       <c r="U17" s="36"/>
@@ -3885,13 +3880,13 @@
         <v>46056</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J18" s="35" t="s">
         <v>52</v>
@@ -3905,7 +3900,7 @@
         <v>52</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="P18" s="35" t="s">
         <v>52</v>
@@ -3917,7 +3912,7 @@
         <v>52</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="T18" s="35"/>
       <c r="U18" s="36"/>
@@ -3946,13 +3941,13 @@
         <v>46056</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>52</v>
@@ -3966,7 +3961,7 @@
         <v>52</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="P19" s="35" t="s">
         <v>52</v>
@@ -3978,7 +3973,7 @@
         <v>52</v>
       </c>
       <c r="S19" s="35" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
@@ -4007,13 +4002,13 @@
         <v>46056</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>52</v>
@@ -4027,7 +4022,7 @@
         <v>52</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="P20" s="35" t="s">
         <v>52</v>
@@ -4039,7 +4034,7 @@
         <v>52</v>
       </c>
       <c r="S20" s="35" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="T20" s="35"/>
       <c r="U20" s="36"/>
@@ -4109,13 +4104,13 @@
         <v>46056</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>52</v>
@@ -4129,7 +4124,7 @@
         <v>52</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="P22" s="35" t="s">
         <v>52</v>
@@ -4141,7 +4136,7 @@
         <v>52</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="T22" s="35"/>
       <c r="U22" s="36"/>
@@ -4170,13 +4165,13 @@
         <v>46056</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>52</v>
@@ -4190,7 +4185,7 @@
         <v>52</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="P23" s="35" t="s">
         <v>52</v>
@@ -4202,7 +4197,7 @@
         <v>52</v>
       </c>
       <c r="S23" s="35" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="T23" s="35"/>
       <c r="U23" s="36"/>
@@ -4238,7 +4233,7 @@
         <v>103</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
@@ -4268,19 +4263,19 @@
         <v>68</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="34">
         <v>46056</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="J25" s="35" t="s">
         <v>52</v>
@@ -4294,7 +4289,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="P25" s="35" t="s">
         <v>52</v>
@@ -4306,7 +4301,7 @@
         <v>52</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T25" s="35"/>
       <c r="U25" s="36"/>
@@ -4335,13 +4330,13 @@
         <v>46056</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>52</v>
@@ -4355,7 +4350,7 @@
         <v>52</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="P26" s="35" t="s">
         <v>52</v>
@@ -4367,7 +4362,7 @@
         <v>52</v>
       </c>
       <c r="S26" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T26" s="35"/>
       <c r="U26" s="36"/>
@@ -4390,19 +4385,19 @@
         <v>71</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" s="34">
         <v>46056</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>52</v>
@@ -4416,7 +4411,7 @@
         <v>52</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="P27" s="35" t="s">
         <v>52</v>
@@ -4428,7 +4423,7 @@
         <v>52</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T27" s="35"/>
       <c r="U27" s="36"/>
@@ -4451,19 +4446,19 @@
         <v>72</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="34">
         <v>46056</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>52</v>
@@ -4477,7 +4472,7 @@
         <v>52</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="P28" s="35" t="s">
         <v>52</v>
@@ -4489,7 +4484,7 @@
         <v>52</v>
       </c>
       <c r="S28" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T28" s="35"/>
       <c r="U28" s="36"/>
@@ -4512,7 +4507,7 @@
         <v>73</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -4607,7 +4602,7 @@
         <v>103</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
@@ -4637,7 +4632,7 @@
         <v>78</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -4650,7 +4645,7 @@
         <v>103</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
@@ -4680,7 +4675,7 @@
         <v>79</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -4721,19 +4716,19 @@
         <v>80</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F34" s="34">
         <v>46056</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="J34" s="35" t="s">
         <v>52</v>
@@ -4747,7 +4742,7 @@
         <v>52</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="P34" s="35" t="s">
         <v>52</v>
@@ -4759,7 +4754,7 @@
         <v>52</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T34" s="35"/>
       <c r="U34" s="36"/>
@@ -4782,19 +4777,19 @@
         <v>81</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F35" s="34">
         <v>46056</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="J35" s="35" t="s">
         <v>52</v>
@@ -4808,7 +4803,7 @@
         <v>52</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="P35" s="35" t="s">
         <v>99</v>
@@ -4820,7 +4815,7 @@
         <v>52</v>
       </c>
       <c r="S35" s="35" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="T35" s="35"/>
       <c r="U35" s="36"/>
@@ -4849,13 +4844,13 @@
         <v>46056</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>52</v>
@@ -4869,7 +4864,7 @@
         <v>52</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="P36" s="35" t="s">
         <v>99</v>
@@ -4881,7 +4876,7 @@
         <v>52</v>
       </c>
       <c r="S36" s="35" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="T36" s="35"/>
       <c r="U36" s="36"/>
@@ -4910,13 +4905,13 @@
         <v>46056</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>52</v>
@@ -4930,7 +4925,7 @@
         <v>52</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="P37" s="35" t="s">
         <v>99</v>
@@ -4942,7 +4937,7 @@
         <v>52</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="T37" s="35"/>
       <c r="U37" s="36"/>
@@ -4965,19 +4960,19 @@
         <v>86</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="34">
         <v>46056</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="J38" s="35" t="s">
         <v>52</v>
@@ -4991,7 +4986,7 @@
         <v>52</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="P38" s="35" t="s">
         <v>99</v>
@@ -5003,7 +4998,7 @@
         <v>52</v>
       </c>
       <c r="S38" s="35" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="T38" s="35"/>
       <c r="U38" s="36"/>
@@ -5026,19 +5021,19 @@
         <v>87</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="34">
         <v>46056</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>52</v>
@@ -5052,7 +5047,7 @@
         <v>52</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="P39" s="35" t="s">
         <v>99</v>
@@ -5064,7 +5059,7 @@
         <v>52</v>
       </c>
       <c r="S39" s="35" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="T39" s="35"/>
       <c r="U39" s="36"/>
@@ -5087,19 +5082,19 @@
         <v>88</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" s="34">
         <v>46056</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>52</v>
@@ -5113,7 +5108,7 @@
         <v>52</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="P40" s="35" t="s">
         <v>52</v>
@@ -5125,7 +5120,7 @@
         <v>52</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T40" s="35"/>
       <c r="U40" s="36"/>
@@ -5148,7 +5143,7 @@
         <v>89</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -5161,7 +5156,7 @@
         <v>108</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
@@ -5191,7 +5186,7 @@
         <v>90</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -5204,7 +5199,7 @@
         <v>108</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
@@ -5231,22 +5226,22 @@
         <v>35</v>
       </c>
       <c r="D43" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="40" t="s">
         <v>135</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>136</v>
       </c>
       <c r="F43" s="34">
         <v>46056</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>52</v>
@@ -5278,22 +5273,22 @@
         <v>38</v>
       </c>
       <c r="D44" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="40" t="s">
         <v>141</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>142</v>
       </c>
       <c r="F44" s="34">
         <v>46056</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>52</v>
@@ -5307,7 +5302,7 @@
         <v>52</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="P44" s="35" t="s">
         <v>52</v>
@@ -5319,7 +5314,7 @@
         <v>52</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T44" s="35"/>
       <c r="U44" s="33"/>
@@ -5339,22 +5334,22 @@
         <v>35</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="34">
         <v>46056</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J45" s="35" t="s">
         <v>52</v>
@@ -5368,7 +5363,7 @@
         <v>52</v>
       </c>
       <c r="O45" s="33" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="P45" s="35" t="s">
         <v>52</v>
@@ -5380,7 +5375,7 @@
         <v>52</v>
       </c>
       <c r="S45" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T45" s="35"/>
       <c r="U45" s="33"/>
@@ -5400,22 +5395,22 @@
         <v>38</v>
       </c>
       <c r="D46" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>151</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>152</v>
       </c>
       <c r="F46" s="34">
         <v>46056</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J46" s="35" t="s">
         <v>52</v>
@@ -5424,7 +5419,7 @@
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
       <c r="N46" s="35"/>
-      <c r="O46" s="54"/>
+      <c r="O46" s="55"/>
       <c r="P46" s="35"/>
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
@@ -5447,22 +5442,22 @@
         <v>38</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F47" s="34">
         <v>46056</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>52</v>
@@ -5471,7 +5466,7 @@
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
       <c r="N47" s="35"/>
-      <c r="O47" s="55"/>
+      <c r="O47" s="9"/>
       <c r="P47" s="35"/>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
@@ -5494,22 +5489,22 @@
         <v>35</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F48" s="34">
         <v>46056</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="J48" s="35" t="s">
         <v>52</v>
@@ -5523,7 +5518,7 @@
         <v>52</v>
       </c>
       <c r="O48" s="35" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="P48" s="35" t="s">
         <v>52</v>
@@ -5531,7 +5526,7 @@
       <c r="Q48" s="35"/>
       <c r="R48" s="35"/>
       <c r="S48" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T48" s="35"/>
       <c r="U48" s="36"/>
@@ -5551,16 +5546,16 @@
         <v>38</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F49" s="34">
         <v>46056</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>248</v>
@@ -5580,7 +5575,7 @@
         <v>52</v>
       </c>
       <c r="O49" s="35" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="P49" s="35" t="s">
         <v>52</v>
@@ -5588,7 +5583,7 @@
       <c r="Q49" s="35"/>
       <c r="R49" s="35"/>
       <c r="S49" s="35" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="T49" s="35"/>
       <c r="U49" s="36"/>
@@ -8298,64 +8293,13 @@
       <c r="W184" s="9"/>
     </row>
     <row r="185" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="7"/>
-      <c r="O185" s="7"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="7"/>
-      <c r="R185" s="7"/>
-      <c r="S185" s="7"/>
-      <c r="T185" s="7"/>
-      <c r="U185" s="8"/>
-      <c r="V185" s="2"/>
-      <c r="W185" s="9"/>
+      <c r="W185" s="7"/>
     </row>
     <row r="186" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
-      <c r="N186" s="7"/>
-      <c r="O186" s="7"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="7"/>
-      <c r="R186" s="7"/>
-      <c r="S186" s="7"/>
-      <c r="T186" s="7"/>
-      <c r="U186" s="8"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="9"/>
+      <c r="W186" s="7"/>
     </row>
     <row r="187" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
-      <c r="P187" s="7"/>
-      <c r="Q187" s="7"/>
-      <c r="R187" s="7"/>
-      <c r="S187" s="7"/>
-      <c r="T187" s="7"/>
-      <c r="U187" s="8"/>
-      <c r="V187" s="2"/>
-      <c r="W187" s="9"/>
+      <c r="W187" s="7"/>
     </row>
     <row r="188" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W188" s="7"/>
@@ -9599,26 +9543,16 @@
     <row r="601" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W601" s="7"/>
     </row>
-    <row r="602" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W602" s="7"/>
-    </row>
-    <row r="603" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W603" s="7"/>
-    </row>
-    <row r="604" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W604" s="7"/>
-    </row>
+    <row r="602" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="605" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="606" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W49" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:W49">
-      <sortCondition ref="A10:A49"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A9:W49" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:W49">
+    <sortCondition ref="A10:A49"/>
+  </sortState>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -9634,24 +9568,12 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F5F4AC7B-142E-4F14-AD0B-95E75DB6B433}">
-          <x14:formula1>
-            <xm:f>Sheet1!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>L34:L35 J10:J49 M10:N49 P10:R49</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T10:T12 T14:T49</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
-          <x14:formula1>
-            <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>K10:K49</xm:sqref>
+          <xm:sqref>T10:T49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9720,7 +9642,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9736,7 +9658,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
@@ -9751,7 +9673,7 @@
         <v>109</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9762,10 +9684,10 @@
         <v>93</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9776,10 +9698,10 @@
         <v>93</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9790,10 +9712,10 @@
         <v>93</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9804,10 +9726,10 @@
         <v>93</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9818,10 +9740,10 @@
         <v>93</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9832,10 +9754,10 @@
         <v>93</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9846,10 +9768,10 @@
         <v>93</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9860,10 +9782,10 @@
         <v>93</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -9882,16 +9804,16 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11902,6 +11824,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11910,23 +11838,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
-    <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <xsd:import namespace="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
+    <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -11935,21 +11850,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:UserStoryALM" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11957,7 +11859,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e76d14e-d0ce-457c-8343-9b55836d9ead" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="295b7897-c886-40bf-9750-5782b814c3e4" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -11970,114 +11872,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d165d17-9b79-46c3-82b9-c927e733c429" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UserStoryALM" ma:index="25" nillable="true" ma:displayName="UserStory ALM" ma:format="Dropdown" ma:internalName="UserStoryALM">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="137048 - Stesura checklist RAP"/>
-          <xsd:enumeration value="137049 - Sviluppo testcase RAP"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a56712a3-8dfd-4688-917a-22f0cf513b89" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c488629b-a647-4465-8bb2-a216a95770f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a56712a3-8dfd-4688-917a-22f0cf513b89">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -12181,14 +11983,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -12205,15 +11999,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
